--- a/docs/ist versi binakarir (penjurusan) v1,4 EP 190120.xlsx
+++ b/docs/ist versi binakarir (penjurusan) v1,4 EP 190120.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19665" windowHeight="7785" tabRatio="500" firstSheet="2" activeTab="5"/>
+    <workbookView windowWidth="19665" windowHeight="7785" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LAYOUT" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="310">
   <si>
     <r>
       <rPr>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Usia   : </t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
   <si>
     <t>WA</t>
@@ -147,9 +150,6 @@
   </si>
   <si>
     <t>19 - 20</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>Ekonom</t>
@@ -991,12 +991,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="177" formatCode="dd\-mmm"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="dd\-mmm"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -1140,14 +1140,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -1160,6 +1152,13 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1179,6 +1178,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1186,25 +1193,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1223,23 +1216,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1253,9 +1232,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1268,16 +1246,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1358,43 +1358,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1412,7 +1400,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1424,85 +1454,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1520,19 +1472,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1716,17 +1716,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1735,7 +1729,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1751,21 +1745,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1787,15 +1766,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1805,128 +1775,158 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="42" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="21" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="19" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="18" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="18" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="20" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="22" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
@@ -1936,14 +1936,14 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyBorder="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyBorder="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="40" fillId="36" borderId="22" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
@@ -1990,10 +1990,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
@@ -2141,7 +2141,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="true"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="44" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="44" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left"/>
       <protection hidden="true"/>
     </xf>
@@ -2392,7 +2392,7 @@
       <alignment horizontal="center"/>
       <protection hidden="true"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyProtection="true">
+    <xf numFmtId="178" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyProtection="true">
       <protection hidden="true"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyProtection="true">
@@ -2704,31 +2704,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>130</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>117</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>132</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>118</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>122</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>114</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>110</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>110</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>119</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4062,7 +4062,7 @@
   <dimension ref="A1:GI966"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" topLeftCell="H4" workbookViewId="0">
-      <selection activeCell="AB33" sqref="AB33"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28571428571429" defaultRowHeight="12.75"/>
@@ -4490,7 +4490,7 @@
       </c>
       <c r="AF10" s="124">
         <f>'INPUT TOTAL'!E13</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AG10" s="124"/>
       <c r="AH10" s="124"/>
@@ -4515,11 +4515,10 @@
         <v>6</v>
       </c>
       <c r="L11" s="136">
-        <v>13</v>
-      </c>
-      <c r="M11" s="141" t="str">
-        <f>INDEX(KODE,N11)</f>
-        <v>A</v>
+        <v>15</v>
+      </c>
+      <c r="M11" s="141" t="s">
+        <v>7</v>
       </c>
       <c r="N11" s="141">
         <v>1</v>
@@ -4539,7 +4538,7 @@
       <c r="AB11" s="124"/>
       <c r="AC11" s="124"/>
       <c r="AD11" s="124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE11" s="124">
         <f>'INPUT JAWABAN'!H56</f>
@@ -4583,7 +4582,7 @@
       <c r="AB12" s="124"/>
       <c r="AC12" s="124"/>
       <c r="AD12" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE12" s="124">
         <f>'INPUT JAWABAN'!H78</f>
@@ -4616,7 +4615,7 @@
       <c r="I13" s="128"/>
       <c r="J13" s="130"/>
       <c r="K13" s="131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L13" s="137"/>
       <c r="M13" s="142"/>
@@ -4638,7 +4637,7 @@
       <c r="AB13" s="124"/>
       <c r="AC13" s="124"/>
       <c r="AD13" s="124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE13" s="124">
         <f>'INPUT JAWABAN'!H80</f>
@@ -4689,7 +4688,7 @@
       <c r="AB14" s="124"/>
       <c r="AC14" s="124"/>
       <c r="AD14" s="124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE14" s="124">
         <f>'INPUT JAWABAN'!H102</f>
@@ -4722,7 +4721,7 @@
       <c r="I15" s="128"/>
       <c r="J15" s="130"/>
       <c r="K15" s="131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L15" s="138"/>
       <c r="M15" s="138"/>
@@ -4743,7 +4742,7 @@
       <c r="AB15" s="124"/>
       <c r="AC15" s="124"/>
       <c r="AD15" s="124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE15" s="124">
         <f>'INPUT JAWABAN'!H124</f>
@@ -4788,7 +4787,7 @@
       <c r="U16" s="124"/>
       <c r="V16" s="124"/>
       <c r="W16" s="124" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X16" s="124">
         <f>AD27+AD28</f>
@@ -4800,7 +4799,7 @@
       <c r="AB16" s="124"/>
       <c r="AC16" s="124"/>
       <c r="AD16" s="124" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE16" s="124">
         <f>'INPUT JAWABAN'!H146</f>
@@ -4845,7 +4844,7 @@
       <c r="U17" s="124"/>
       <c r="V17" s="124"/>
       <c r="W17" s="124" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="X17" s="124">
         <f>AD26+AD29</f>
@@ -4857,7 +4856,7 @@
       <c r="AB17" s="124"/>
       <c r="AC17" s="124"/>
       <c r="AD17" s="124" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE17" s="124">
         <f>'INPUT JAWABAN'!H168</f>
@@ -4912,7 +4911,7 @@
       <c r="AB18" s="124"/>
       <c r="AC18" s="124"/>
       <c r="AD18" s="124" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE18" s="124">
         <f>'INPUT JAWABAN'!H190</f>
@@ -4961,7 +4960,7 @@
       <c r="Y19" s="124"/>
       <c r="Z19" s="124"/>
       <c r="AA19" s="124" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB19" s="124">
         <f>X16-X17</f>
@@ -5044,7 +5043,7 @@
       <c r="G21" s="124"/>
       <c r="H21" s="124"/>
       <c r="I21" s="139" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J21" s="139"/>
       <c r="K21" s="139"/>
@@ -5165,37 +5164,37 @@
       <c r="Z23" s="124"/>
       <c r="AA23" s="124"/>
       <c r="AB23" s="124" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC23" s="124" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AD23" s="124" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE23" s="124"/>
       <c r="AF23" s="124"/>
       <c r="AG23" s="124" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH23" s="124" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI23" s="124"/>
       <c r="AJ23" s="124"/>
       <c r="AK23" s="124" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL23" s="124" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM23" s="124"/>
       <c r="AN23" s="124"/>
       <c r="AO23" s="124" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP23" s="124" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ23" s="124"/>
       <c r="AR23" s="124"/>
@@ -5236,23 +5235,23 @@
       </c>
       <c r="AB24" s="124">
         <f t="shared" ref="AB24:AB32" si="0">IF(AE10=0,IF(AF10=0,AE10,AF10),AE10)</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AC24" s="124">
         <f>IF($M$11="A",VLOOKUP(AB24,DATA!E$39:F59,2),IF($M$11="B",VLOOKUP(AB24,DATA!AJ224:AK244,2),IF($M$11="C",VLOOKUP(AB24,DATA!BO409:BP429,2),IF($M$11="D",VLOOKUP(AB24,DATA!CT594:CU614,2),IF($M$11="E",VLOOKUP(AB24,DATA!DY779:DZ799,2),IF($M$11="F",VLOOKUP(AB24,DATA!FD964:FE984,2),IF($M$11="G",VLOOKUP(AB24,DATA!GI1149:GJ1169,2),"ERR")))))))</f>
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="AD24" s="124">
         <f>IF($M$11="H",VLOOKUP(AB24,DATA!HN1334:HO1354,2),AC24)</f>
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="AE24" s="124"/>
       <c r="AF24" s="124"/>
       <c r="AG24" s="124" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AH24" s="124" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="AI24" s="124"/>
       <c r="AJ24" s="124"/>
@@ -5305,7 +5304,7 @@
       <c r="Y25" s="124"/>
       <c r="Z25" s="124"/>
       <c r="AA25" s="124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB25" s="124">
         <f t="shared" si="0"/>
@@ -5378,7 +5377,7 @@
       <c r="Y26" s="124"/>
       <c r="Z26" s="124"/>
       <c r="AA26" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB26" s="124">
         <f t="shared" si="0"/>
@@ -5451,7 +5450,7 @@
       <c r="Y27" s="124"/>
       <c r="Z27" s="124"/>
       <c r="AA27" s="124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB27" s="124">
         <f t="shared" si="0"/>
@@ -5524,7 +5523,7 @@
       <c r="Y28" s="124"/>
       <c r="Z28" s="124"/>
       <c r="AA28" s="124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB28" s="124">
         <f t="shared" si="0"/>
@@ -5597,7 +5596,7 @@
       <c r="Y29" s="124"/>
       <c r="Z29" s="124"/>
       <c r="AA29" s="124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AB29" s="124">
         <f t="shared" si="0"/>
@@ -5668,7 +5667,7 @@
       <c r="Y30" s="124"/>
       <c r="Z30" s="124"/>
       <c r="AA30" s="124" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AB30" s="124">
         <f t="shared" si="0"/>
@@ -5739,7 +5738,7 @@
       <c r="Y31" s="124"/>
       <c r="Z31" s="124"/>
       <c r="AA31" s="124" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB31" s="124">
         <f t="shared" si="0"/>
@@ -5810,7 +5809,7 @@
       <c r="Y32" s="124"/>
       <c r="Z32" s="124"/>
       <c r="AA32" s="124" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB32" s="124">
         <f t="shared" si="0"/>
@@ -5879,15 +5878,15 @@
       <c r="AA33" s="124"/>
       <c r="AB33" s="124">
         <f>SUM(AB24:AB32)</f>
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="AC33" s="124">
         <f>IF($M$11="A",VLOOKUP(AB33,DATA!AF39:AG218,2),IF($M$11="B",VLOOKUP(AB33,DATA!BK224:BL403,2),IF($M$11="C",VLOOKUP(AB33,DATA!CP409:CQ588,2),IF($M$11="D",VLOOKUP(AB33,DATA!DU594:DV773,2),IF($M$11="E",VLOOKUP(AB33,DATA!EZ779:FA958,2),IF($M$11="F",VLOOKUP(AB33,DATA!GE964:GF1143,2),IF($M$11="G",VLOOKUP(AB33,DATA!HJ1149:HK1328,2),"ERR")))))))</f>
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AD33" s="124">
         <f>IF($M$11="H",VLOOKUP(AB33,DATA!IO1334:IP1513,2),AC33)</f>
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AE33" s="124"/>
       <c r="AF33" s="124"/>
@@ -6094,7 +6093,7 @@
       </c>
       <c r="AB37" s="124">
         <f t="shared" ref="AB37:AB45" si="1">AD24</f>
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="AC37" s="124" t="e">
         <f t="shared" ref="AC37:AC45" si="2">AM37</f>
@@ -6107,7 +6106,7 @@
       <c r="AF37" s="124"/>
       <c r="AG37" s="145">
         <f>AVERAGE(AD24:AD32)</f>
-        <v>106.666666666667</v>
+        <v>104.777777777778</v>
       </c>
       <c r="AH37" s="124"/>
       <c r="AI37" s="124"/>
@@ -6167,7 +6166,7 @@
       <c r="Y38" s="124"/>
       <c r="Z38" s="124"/>
       <c r="AA38" s="124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB38" s="124">
         <f t="shared" si="1"/>
@@ -6192,7 +6191,7 @@
       <c r="AI38" s="124"/>
       <c r="AJ38" s="124"/>
       <c r="AK38" s="124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL38" s="124" t="e">
         <f>IF(#REF!="AA",DATA!I4,IF(#REF!="BB",DATA!J4,IF(#REF!="CC",DATA!K4,IF(#REF!="DD",DATA!L4,IF(#REF!="EE",DATA!M4,IF(#REF!="FF",DATA!N4,DATA!O4))))))</f>
@@ -6204,7 +6203,7 @@
       </c>
       <c r="AN38" s="124"/>
       <c r="AO38" s="124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP38" s="124" t="e">
         <f>IF(#REF!="AAA",DATA!V4,IF(#REF!="BBB",DATA!W4,IF(#REF!="CCC",DATA!X4,IF(#REF!="DDD",DATA!Y4,IF(#REF!="EEE",DATA!Z4,IF(#REF!="FFF",DATA!AA4,DATA!AB4))))))</f>
@@ -6246,7 +6245,7 @@
       <c r="Y39" s="124"/>
       <c r="Z39" s="124"/>
       <c r="AA39" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB39" s="124">
         <f t="shared" si="1"/>
@@ -6271,7 +6270,7 @@
       <c r="AI39" s="124"/>
       <c r="AJ39" s="124"/>
       <c r="AK39" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL39" s="124" t="e">
         <f>IF(#REF!="AA",DATA!I5,IF(#REF!="BB",DATA!J5,IF(#REF!="CC",DATA!K5,IF(#REF!="DD",DATA!L5,IF(#REF!="EE",DATA!M5,IF(#REF!="FF",DATA!N5,DATA!O5))))))</f>
@@ -6283,7 +6282,7 @@
       </c>
       <c r="AN39" s="124"/>
       <c r="AO39" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP39" s="124" t="e">
         <f>IF(#REF!="AAA",DATA!V5,IF(#REF!="BBB",DATA!W5,IF(#REF!="CCC",DATA!X5,IF(#REF!="DDD",DATA!Y5,IF(#REF!="EEE",DATA!Z5,IF(#REF!="FFF",DATA!AA5,DATA!AB5))))))</f>
@@ -6325,7 +6324,7 @@
       <c r="Y40" s="124"/>
       <c r="Z40" s="124"/>
       <c r="AA40" s="124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB40" s="124">
         <f t="shared" si="1"/>
@@ -6350,7 +6349,7 @@
       <c r="AI40" s="124"/>
       <c r="AJ40" s="124"/>
       <c r="AK40" s="124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL40" s="124" t="e">
         <f>IF(#REF!="AA",DATA!I6,IF(#REF!="BB",DATA!J6,IF(#REF!="CC",DATA!K6,IF(#REF!="DD",DATA!L6,IF(#REF!="EE",DATA!M6,IF(#REF!="FF",DATA!N6,DATA!O6))))))</f>
@@ -6362,7 +6361,7 @@
       </c>
       <c r="AN40" s="124"/>
       <c r="AO40" s="124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP40" s="124" t="e">
         <f>IF(#REF!="AAA",DATA!V6,IF(#REF!="BBB",DATA!W6,IF(#REF!="CCC",DATA!X6,IF(#REF!="DDD",DATA!Y6,IF(#REF!="EEE",DATA!Z6,IF(#REF!="FFF",DATA!AA6,DATA!AB6))))))</f>
@@ -6404,7 +6403,7 @@
       <c r="Y41" s="124"/>
       <c r="Z41" s="124"/>
       <c r="AA41" s="124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB41" s="124">
         <f t="shared" si="1"/>
@@ -6429,7 +6428,7 @@
       <c r="AI41" s="124"/>
       <c r="AJ41" s="124"/>
       <c r="AK41" s="124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL41" s="124" t="e">
         <f>IF(#REF!="AA",DATA!I7,IF(#REF!="BB",DATA!J7,IF(#REF!="CC",DATA!K7,IF(#REF!="DD",DATA!L7,IF(#REF!="EE",DATA!M7,IF(#REF!="FF",DATA!N7,DATA!O7))))))</f>
@@ -6441,7 +6440,7 @@
       </c>
       <c r="AN41" s="124"/>
       <c r="AO41" s="124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP41" s="124" t="e">
         <f>IF(#REF!="AAA",DATA!V7,IF(#REF!="BBB",DATA!W7,IF(#REF!="CCC",DATA!X7,IF(#REF!="DDD",DATA!Y7,IF(#REF!="EEE",DATA!Z7,IF(#REF!="FFF",DATA!AA7,DATA!AB7))))))</f>
@@ -6483,7 +6482,7 @@
       <c r="Y42" s="124"/>
       <c r="Z42" s="124"/>
       <c r="AA42" s="124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AB42" s="124">
         <f t="shared" si="1"/>
@@ -6501,7 +6500,7 @@
       <c r="AI42" s="124"/>
       <c r="AJ42" s="124"/>
       <c r="AK42" s="124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL42" s="124" t="e">
         <f>IF(#REF!="AA",DATA!I8,IF(#REF!="BB",DATA!J8,IF(#REF!="CC",DATA!K8,IF(#REF!="DD",DATA!L8,IF(#REF!="EE",DATA!M8,IF(#REF!="FF",DATA!N8,DATA!O8))))))</f>
@@ -6513,7 +6512,7 @@
       </c>
       <c r="AN42" s="124"/>
       <c r="AO42" s="124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP42" s="124" t="e">
         <f>IF(#REF!="AAA",DATA!V8,IF(#REF!="BBB",DATA!W8,IF(#REF!="CCC",DATA!X8,IF(#REF!="DDD",DATA!Y8,IF(#REF!="EEE",DATA!Z8,IF(#REF!="FFF",DATA!AA8,DATA!AB8))))))</f>
@@ -6555,7 +6554,7 @@
       <c r="Y43" s="124"/>
       <c r="Z43" s="124"/>
       <c r="AA43" s="124" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AB43" s="124">
         <f t="shared" si="1"/>
@@ -6573,7 +6572,7 @@
       <c r="AI43" s="124"/>
       <c r="AJ43" s="124"/>
       <c r="AK43" s="124" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL43" s="124" t="e">
         <f>IF(#REF!="AA",DATA!I9,IF(#REF!="BB",DATA!J9,IF(#REF!="CC",DATA!K9,IF(#REF!="DD",DATA!L9,IF(#REF!="EE",DATA!M9,IF(#REF!="FF",DATA!N9,DATA!O9))))))</f>
@@ -6585,7 +6584,7 @@
       </c>
       <c r="AN43" s="124"/>
       <c r="AO43" s="124" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP43" s="124" t="e">
         <f>IF(#REF!="AAA",DATA!V9,IF(#REF!="BBB",DATA!W9,IF(#REF!="CCC",DATA!X9,IF(#REF!="DDD",DATA!Y9,IF(#REF!="EEE",DATA!Z9,IF(#REF!="FFF",DATA!AA9,DATA!AB9))))))</f>
@@ -6627,7 +6626,7 @@
       <c r="Y44" s="124"/>
       <c r="Z44" s="124"/>
       <c r="AA44" s="124" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB44" s="124">
         <f t="shared" si="1"/>
@@ -6645,7 +6644,7 @@
       <c r="AI44" s="124"/>
       <c r="AJ44" s="124"/>
       <c r="AK44" s="124" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL44" s="124" t="e">
         <f>IF(#REF!="AA",DATA!I10,IF(#REF!="BB",DATA!J10,IF(#REF!="CC",DATA!K10,IF(#REF!="DD",DATA!L10,IF(#REF!="EE",DATA!M10,IF(#REF!="FF",DATA!N10,DATA!O10))))))</f>
@@ -6657,7 +6656,7 @@
       </c>
       <c r="AN44" s="124"/>
       <c r="AO44" s="124" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP44" s="124" t="e">
         <f>IF(#REF!="AAA",DATA!V10,IF(#REF!="BBB",DATA!W10,IF(#REF!="CCC",DATA!X10,IF(#REF!="DDD",DATA!Y10,IF(#REF!="EEE",DATA!Z10,IF(#REF!="FFF",DATA!AA10,DATA!AB10))))))</f>
@@ -6699,7 +6698,7 @@
       <c r="Y45" s="124"/>
       <c r="Z45" s="124"/>
       <c r="AA45" s="124" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB45" s="124">
         <f t="shared" si="1"/>
@@ -6717,7 +6716,7 @@
       <c r="AI45" s="124"/>
       <c r="AJ45" s="124"/>
       <c r="AK45" s="124" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL45" s="124" t="e">
         <f>IF(#REF!="AA",DATA!I11,IF(#REF!="BB",DATA!J11,IF(#REF!="CC",DATA!K11,IF(#REF!="DD",DATA!L11,IF(#REF!="EE",DATA!M11,IF(#REF!="FF",DATA!N11,DATA!O11))))))</f>
@@ -6729,7 +6728,7 @@
       </c>
       <c r="AN45" s="124"/>
       <c r="AO45" s="124" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP45" s="124" t="e">
         <f>IF(#REF!="AAA",DATA!V11,IF(#REF!="BBB",DATA!W11,IF(#REF!="CCC",DATA!X11,IF(#REF!="DDD",DATA!Y11,IF(#REF!="EEE",DATA!Z11,IF(#REF!="FFF",DATA!AA11,DATA!AB11))))))</f>
@@ -6943,7 +6942,7 @@
       </c>
       <c r="AB49" s="124">
         <f t="shared" ref="AB49:AB57" si="3">AD24</f>
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="AC49" s="124" t="e">
         <f t="shared" ref="AC49:AC57" si="4">AQ37</f>
@@ -6995,7 +6994,7 @@
       <c r="Y50" s="124"/>
       <c r="Z50" s="124"/>
       <c r="AA50" s="124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB50" s="124">
         <f t="shared" si="3"/>
@@ -7051,7 +7050,7 @@
       <c r="Y51" s="124"/>
       <c r="Z51" s="124"/>
       <c r="AA51" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB51" s="124">
         <f t="shared" si="3"/>
@@ -7107,7 +7106,7 @@
       <c r="Y52" s="124"/>
       <c r="Z52" s="124"/>
       <c r="AA52" s="124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB52" s="124">
         <f t="shared" si="3"/>
@@ -7163,7 +7162,7 @@
       <c r="Y53" s="124"/>
       <c r="Z53" s="124"/>
       <c r="AA53" s="124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB53" s="124">
         <f t="shared" si="3"/>
@@ -7219,7 +7218,7 @@
       <c r="Y54" s="124"/>
       <c r="Z54" s="124"/>
       <c r="AA54" s="124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AB54" s="124">
         <f t="shared" si="3"/>
@@ -7275,7 +7274,7 @@
       <c r="Y55" s="124"/>
       <c r="Z55" s="124"/>
       <c r="AA55" s="124" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AB55" s="124">
         <f t="shared" si="3"/>
@@ -7331,7 +7330,7 @@
       <c r="Y56" s="124"/>
       <c r="Z56" s="124"/>
       <c r="AA56" s="124" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB56" s="124">
         <f t="shared" si="3"/>
@@ -7387,7 +7386,7 @@
       <c r="Y57" s="124"/>
       <c r="Z57" s="124"/>
       <c r="AA57" s="124" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB57" s="124">
         <f t="shared" si="3"/>
@@ -7870,7 +7869,7 @@
       </c>
       <c r="AJ12" s="116"/>
       <c r="AK12" s="87" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="AL12" s="117" t="str">
         <f>IF(AJ12="A"," ",IF(AJ12="B","x",IF(AJ12="C","x",IF(AJ12="D","x",IF(AJ12="E","x",IF(AJ12="","x","ERROR"))))))</f>
@@ -7945,9 +7944,8 @@
       <c r="AF13" s="87">
         <v>25</v>
       </c>
-      <c r="AG13" s="117" t="str">
-        <f>IF(AE13=25," ",IF(AE13="","x","x"))</f>
-        <v>x</v>
+      <c r="AG13" s="117" t="s">
+        <v>104</v>
       </c>
       <c r="AI13" s="94">
         <v>2</v>
@@ -8137,7 +8135,7 @@
       </c>
       <c r="AJ15" s="116"/>
       <c r="AK15" s="87" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="AL15" s="117" t="str">
         <f>IF(AJ15="A"," ",IF(AJ15="B","x",IF(AJ15="C","x",IF(AJ15="D","x",IF(AJ15="E","x",IF(AJ15="","x","ERROR"))))))</f>
@@ -8389,7 +8387,7 @@
       </c>
       <c r="U18" s="116"/>
       <c r="V18" s="87" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="W18" s="117" t="str">
         <f>IF(U18="A"," ",IF(U18="B","x",IF(U18="C","x",IF(U18="D","x",IF(U18="E","x",IF(U18="","x","ERROR"))))))</f>
@@ -8446,7 +8444,7 @@
       </c>
       <c r="E19" s="116"/>
       <c r="F19" s="87" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G19" s="117" t="str">
         <f>IF(E19="A"," ",IF(E19="B","x",IF(E19="C","x",IF(E19="D","x",IF(E19="E","x",IF(E19="","x","ERROR"))))))</f>
@@ -8579,7 +8577,7 @@
       </c>
       <c r="U20" s="116"/>
       <c r="V20" s="87" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="W20" s="117" t="str">
         <f>IF(U20="A"," ",IF(U20="B","x",IF(U20="C","x",IF(U20="D","x",IF(U20="E","x",IF(U20="","x","ERROR"))))))</f>
@@ -8656,7 +8654,7 @@
         <v>x</v>
       </c>
       <c r="M21" s="87" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="O21" s="94">
         <v>10</v>
@@ -8846,7 +8844,7 @@
         <v>x</v>
       </c>
       <c r="M23" s="87" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="O23" s="94">
         <v>12</v>
@@ -8941,7 +8939,7 @@
         <v>x</v>
       </c>
       <c r="M24" s="87" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="O24" s="94">
         <v>13</v>
@@ -9149,7 +9147,7 @@
       </c>
       <c r="U26" s="116"/>
       <c r="V26" s="87" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="W26" s="117" t="str">
         <f>IF(U26="A"," ",IF(U26="B","x",IF(U26="C","x",IF(U26="D","x",IF(U26="E","x",IF(U26="","x","ERROR"))))))</f>
@@ -9206,7 +9204,7 @@
       </c>
       <c r="E27" s="116"/>
       <c r="F27" s="87" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G27" s="117" t="str">
         <f>IF(E27="A"," ",IF(E27="B","x",IF(E27="C","x",IF(E27="D","x",IF(E27="E","x",IF(E27="","x","ERROR"))))))</f>
@@ -9226,7 +9224,7 @@
         <v>x</v>
       </c>
       <c r="M27" s="87" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="O27" s="94">
         <v>16</v>
@@ -9277,7 +9275,7 @@
       </c>
       <c r="AJ27" s="116"/>
       <c r="AK27" s="87" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="AL27" s="117" t="str">
         <f>IF(AJ27="A"," ",IF(AJ27="B","x",IF(AJ27="C","x",IF(AJ27="D","x",IF(AJ27="E","x",IF(AJ27="","x","ERROR"))))))</f>
@@ -9713,7 +9711,7 @@
       </c>
       <c r="U32" s="116"/>
       <c r="V32" s="87" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="W32" s="117" t="str">
         <f>IF(U32="A"," ",IF(U32="B","x",IF(U32="C","x",IF(U32="D","x",IF(U32="E","x",IF(U32="","x","ERROR"))))))</f>
@@ -11350,7 +11348,7 @@
   <dimension ref="C3:AP191"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73333333333333" defaultRowHeight="12.75"/>
@@ -11545,7 +11543,7 @@
         <v>105</v>
       </c>
       <c r="E13" s="98">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G13" s="97"/>
       <c r="H13" s="94" t="s">
@@ -12880,8 +12878,8 @@
   <sheetPr/>
   <dimension ref="A1:AA34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73333333333333" defaultRowHeight="12.75"/>
@@ -12965,7 +12963,7 @@
       </c>
       <c r="D4" s="72">
         <f>LAYOUT!L11</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" s="69"/>
       <c r="F4" s="69"/>
@@ -13055,7 +13053,7 @@
       <c r="N9" s="81"/>
       <c r="O9" s="44">
         <f>LAYOUT!L11</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="83"/>
       <c r="R9" s="83"/>
@@ -13094,10 +13092,10 @@
       <c r="G10" s="69"/>
       <c r="H10" s="70"/>
       <c r="I10" s="79" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J10" s="79" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" s="81"/>
       <c r="S10" s="84" t="s">
@@ -13105,35 +13103,35 @@
       </c>
       <c r="T10" s="44">
         <f>VLOOKUP(I11,NORMA!B7:C27,2,FALSE())</f>
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="U10" s="44">
         <f>VLOOKUP(I11,NORMA!B34:C54,2,FALSE())</f>
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="V10" s="44">
         <f>VLOOKUP(I11,NORMA!B61:C81,2,FALSE())</f>
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="W10" s="44">
         <f>VLOOKUP(I11,NORMA!B88:C108,2,FALSE())</f>
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="X10" s="44">
         <f>VLOOKUP(I11,NORMA!B115:C135,2,FALSE())</f>
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="Y10" s="44">
         <f>VLOOKUP(I11,NORMA!B142:C162,2,FALSE())</f>
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="Z10" s="44">
         <f>VLOOKUP(I11,NORMA!B169:C189,2,FALSE())</f>
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="AA10" s="44">
         <f>VLOOKUP(I11,NORMA!B196:C216,2,FALSE())</f>
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" ht="21" customHeight="true" spans="1:27">
@@ -13149,11 +13147,11 @@
       </c>
       <c r="I11" s="79">
         <f>LAYOUT!AB24</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J11" s="79">
         <f>IF(O9=12,T10,IF(O9=13,U10,IF(O9=14,V10,IF(O9=15,W10,IF(O9=16,X10,IF(O9=17,Y10,IF(O9=18,Z10,IF(O9=19,AA10,eror))))))))</f>
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="M11" s="82" t="str">
         <f t="shared" ref="M11:M19" si="0">IF(J11&gt;100,"Kekuatan","Kelemahan")</f>
@@ -13161,7 +13159,7 @@
       </c>
       <c r="N11" s="81"/>
       <c r="S11" s="84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T11" s="44">
         <f>VLOOKUP(I12,NORMA!E7:F27,2,FALSE())</f>
@@ -13205,7 +13203,7 @@
       <c r="F12" s="69"/>
       <c r="G12" s="69"/>
       <c r="H12" s="76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I12" s="79">
         <f>LAYOUT!AB25</f>
@@ -13213,7 +13211,7 @@
       </c>
       <c r="J12" s="79">
         <f>IF(O9=12,T11,IF(O9=13,U11,IF(O9=14,V11,IF(O9=15,W11,IF(O9=16,X11,IF(O9=17,Y11,IF(O9=18,Z11,IF(O9=19,AA11,eror))))))))</f>
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="M12" s="82" t="str">
         <f t="shared" si="0"/>
@@ -13221,7 +13219,7 @@
       </c>
       <c r="N12" s="81"/>
       <c r="S12" s="84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T12" s="44">
         <f>VLOOKUP(I13,NORMA!H7:I27,2,FALSE())</f>
@@ -13265,7 +13263,7 @@
       <c r="F13" s="69"/>
       <c r="G13" s="69"/>
       <c r="H13" s="76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I13" s="79">
         <f>LAYOUT!AB26</f>
@@ -13273,7 +13271,7 @@
       </c>
       <c r="J13" s="79">
         <f>IF(O9=12,T12,IF(O9=13,U12,IF(O9=14,V12,IF(O9=15,W12,IF(O9=16,X12,IF(O9=17,Y12,IF(O9=18,Z12,IF(O9=19,AA12,eror))))))))</f>
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="M13" s="82" t="str">
         <f t="shared" si="0"/>
@@ -13281,7 +13279,7 @@
       </c>
       <c r="N13" s="81"/>
       <c r="S13" s="84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T13" s="44">
         <f>VLOOKUP(I14,NORMA!K7:L27,2,FALSE())</f>
@@ -13325,7 +13323,7 @@
       <c r="F14" s="69"/>
       <c r="G14" s="69"/>
       <c r="H14" s="76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I14" s="79">
         <f>LAYOUT!AB27</f>
@@ -13333,14 +13331,14 @@
       </c>
       <c r="J14" s="79">
         <f>IF(O9=12,T13,IF(O9=13,U13,IF(O9=14,V13,IF(O9=15,W13,IF(O9=16,X13,IF(O9=17,Y13,IF(O9=18,Z13,IF(O9=19,AA13,eror))))))))</f>
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="M14" s="82" t="str">
         <f t="shared" si="0"/>
         <v>Kekuatan</v>
       </c>
       <c r="S14" s="84" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T14" s="44">
         <f>VLOOKUP(I15,NORMA!N7:O27,2,FALSE())</f>
@@ -13384,7 +13382,7 @@
       <c r="F15" s="69"/>
       <c r="G15" s="69"/>
       <c r="H15" s="76" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I15" s="79">
         <f>LAYOUT!AB32</f>
@@ -13392,14 +13390,14 @@
       </c>
       <c r="J15" s="79">
         <f>IF(O9=12,T14,IF(O9=13,U14,IF(O9=14,V14,IF(O9=15,W14,IF(O9=16,X14,IF(O9=17,Y14,IF(O9=18,Z14,IF(O9=19,AA14,eror))))))))</f>
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="M15" s="82" t="str">
         <f t="shared" si="0"/>
         <v>Kekuatan</v>
       </c>
       <c r="S15" s="84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T15" s="44">
         <f>VLOOKUP(I16,NORMA!Q7:R27,2,FALSE())</f>
@@ -13443,7 +13441,7 @@
       <c r="F16" s="69"/>
       <c r="G16" s="69"/>
       <c r="H16" s="76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I16" s="79">
         <f>LAYOUT!AB28</f>
@@ -13451,14 +13449,14 @@
       </c>
       <c r="J16" s="79">
         <f>IF(O9=12,T15,IF(O9=13,U15,IF(O9=14,V15,IF(O9=15,W15,IF(O9=16,X15,IF(O9=17,Y15,IF(O9=18,Z15,IF(O9=19,AA15,eror))))))))</f>
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="M16" s="82" t="str">
         <f t="shared" si="0"/>
         <v>Kekuatan</v>
       </c>
       <c r="S16" s="84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T16" s="44">
         <f>VLOOKUP(I17,NORMA!T7:U27,2,FALSE())</f>
@@ -13502,7 +13500,7 @@
       <c r="F17" s="69"/>
       <c r="G17" s="69"/>
       <c r="H17" s="76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I17" s="79">
         <f>LAYOUT!AB29</f>
@@ -13510,14 +13508,14 @@
       </c>
       <c r="J17" s="79">
         <f>IF(O9=12,T16,IF(O9=13,U16,IF(O9=14,V16,IF(O9=15,W16,IF(O9=16,X16,IF(O9=17,Y16,IF(O9=18,Z16,IF(O9=19,AA16,eror))))))))</f>
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="M17" s="82" t="str">
         <f t="shared" si="0"/>
         <v>Kekuatan</v>
       </c>
       <c r="S17" s="84" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T17" s="44">
         <f>VLOOKUP(I18,NORMA!W7:X27,2,FALSE())</f>
@@ -13561,7 +13559,7 @@
       <c r="F18" s="69"/>
       <c r="G18" s="69"/>
       <c r="H18" s="76" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I18" s="79">
         <f>LAYOUT!AB30</f>
@@ -13569,14 +13567,14 @@
       </c>
       <c r="J18" s="79">
         <f>IF(O9=12,T17,IF(O9=13,U17,IF(O9=14,V17,IF(O9=15,W17,IF(O9=16,X17,IF(O9=17,Y17,IF(O9=18,Z17,IF(O9=19,AA17,eror))))))))</f>
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M18" s="82" t="str">
         <f t="shared" si="0"/>
         <v>Kekuatan</v>
       </c>
       <c r="S18" s="84" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T18" s="44">
         <f>VLOOKUP(I19,NORMA!Z7:AA27,2,FALSE())</f>
@@ -13622,7 +13620,7 @@
       </c>
       <c r="G19" s="69"/>
       <c r="H19" s="76" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I19" s="79">
         <f>LAYOUT!AB31</f>
@@ -13630,7 +13628,7 @@
       </c>
       <c r="J19" s="79">
         <f>IF(O9=12,T18,IF(O9=13,U18,IF(O9=14,V18,IF(O9=15,W18,IF(O9=16,X18,IF(O9=17,Y18,IF(O9=18,Z18,IF(O9=19,AA18,eror))))))))</f>
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M19" s="82" t="str">
         <f t="shared" si="0"/>
@@ -13650,43 +13648,43 @@
       </c>
       <c r="I20" s="79">
         <f>LAYOUT!AB33</f>
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="J20" s="79">
         <f>IF(O9=12,T20,IF(O9=13,U20,IF(O9=14,V20,IF(O9=15,W20,IF(O9=16,X20,IF(O9=17,Y20,IF(O9=18,Z20,IF(O9=19,AA20,eror))))))))</f>
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="T20" s="44">
         <f>VLOOKUP(I20,gesamt!B4:J183,2,FALSE())</f>
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="U20" s="44">
         <f>VLOOKUP(I20,gesamt!B4:J183,3,FALSE())</f>
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="V20" s="44">
         <f>VLOOKUP(I20,gesamt!B4:J183,4,FALSE())</f>
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="W20" s="44">
         <f>VLOOKUP(I20,gesamt!B4:J183,5,FALSE())</f>
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="X20" s="44">
         <f>VLOOKUP(I20,gesamt!B4:J183,6,FALSE())</f>
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="Y20" s="44">
         <f>VLOOKUP(I20,gesamt!B4:J183,7,FALSE())</f>
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="Z20" s="44">
         <f>VLOOKUP(I20,gesamt!B4:J183,8,FALSE())</f>
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AA20" s="44">
         <f>VLOOKUP(I20,gesamt!B4:J183,9,FALSE())</f>
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" ht="21" customHeight="true" spans="1:10">
@@ -13703,7 +13701,7 @@
       </c>
       <c r="J21" s="80">
         <f>VLOOKUP(J20,DATA!A64:B146,2)</f>
-        <v>142</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" ht="21" customHeight="true" spans="1:10">
@@ -13905,7 +13903,7 @@
       </c>
       <c r="D5" s="44">
         <f>VIEW!J11</f>
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="E5" s="46"/>
       <c r="F5" s="44"/>
@@ -13927,11 +13925,11 @@
     <row r="6" spans="2:10">
       <c r="B6" s="44"/>
       <c r="C6" s="45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="44">
         <f>VIEW!J12</f>
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E6" s="46"/>
       <c r="G6" s="49">
@@ -13952,11 +13950,11 @@
     <row r="7" spans="2:10">
       <c r="B7" s="44"/>
       <c r="C7" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="44">
         <f>VIEW!J13</f>
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E7" s="46"/>
       <c r="G7" s="49">
@@ -13977,11 +13975,11 @@
     <row r="8" spans="2:10">
       <c r="B8" s="44"/>
       <c r="C8" s="45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" s="44">
         <f>VIEW!J14</f>
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E8" s="46"/>
       <c r="G8" s="49">
@@ -14002,11 +14000,11 @@
     <row r="9" spans="2:10">
       <c r="B9" s="44"/>
       <c r="C9" s="45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="44">
         <f>VIEW!J15</f>
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E9" s="46"/>
       <c r="G9" s="49">
@@ -14027,11 +14025,11 @@
     <row r="10" spans="2:10">
       <c r="B10" s="44"/>
       <c r="C10" s="45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="44">
         <f>VIEW!J16</f>
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E10" s="46"/>
       <c r="G10" s="49">
@@ -14052,11 +14050,11 @@
     <row r="11" spans="2:10">
       <c r="B11" s="44"/>
       <c r="C11" s="45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" s="44">
         <f>VIEW!J17</f>
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E11" s="46"/>
       <c r="G11" s="51">
@@ -14077,11 +14075,11 @@
     <row r="12" spans="2:10">
       <c r="B12" s="44"/>
       <c r="C12" s="45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" s="44">
         <f>VIEW!J18</f>
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E12" s="46"/>
       <c r="G12" s="49">
@@ -14102,11 +14100,11 @@
     <row r="13" spans="2:10">
       <c r="B13" s="44"/>
       <c r="C13" s="45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" s="44">
         <f>VIEW!J19</f>
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E13" s="46"/>
       <c r="G13" s="40"/>
@@ -14436,7 +14434,7 @@
   <sheetPr/>
   <dimension ref="B5:Q84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B21" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" topLeftCell="B21" workbookViewId="0">
       <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
@@ -14488,7 +14486,7 @@
       </c>
       <c r="G6" s="23">
         <f>LAYOUT!AD24</f>
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="2:7">
@@ -14501,7 +14499,7 @@
         <v>157</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G7" s="23">
         <f>LAYOUT!AD25</f>
@@ -14518,7 +14516,7 @@
         <v>159</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8" s="23">
         <f>LAYOUT!AD26</f>
@@ -14533,7 +14531,7 @@
         <v>160</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9" s="23">
         <f>LAYOUT!AD27</f>
@@ -14548,7 +14546,7 @@
         <v>161</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G10" s="23">
         <f>LAYOUT!AD32</f>
@@ -14565,7 +14563,7 @@
         <v>74</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" s="23">
         <f>LAYOUT!AD28</f>
@@ -14582,7 +14580,7 @@
         <v>162</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" s="23">
         <f>LAYOUT!AD29</f>
@@ -14599,7 +14597,7 @@
         <v>164</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G13" s="23">
         <f>LAYOUT!AD30</f>
@@ -14613,7 +14611,7 @@
         <v>165</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G14" s="23">
         <f>LAYOUT!AD31</f>
@@ -15602,7 +15600,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I4" s="19">
         <v>108</v>
@@ -15632,7 +15630,7 @@
         <v>106</v>
       </c>
       <c r="U4" s="19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V4" s="19">
         <v>107</v>
@@ -15673,7 +15671,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I5" s="19">
         <v>113</v>
@@ -15703,7 +15701,7 @@
         <v>106</v>
       </c>
       <c r="U5" s="19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V5" s="19">
         <v>109</v>
@@ -15744,7 +15742,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I6" s="19">
         <v>107</v>
@@ -15774,7 +15772,7 @@
         <v>102</v>
       </c>
       <c r="U6" s="19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V6" s="19">
         <v>106</v>
@@ -15815,7 +15813,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I7" s="19">
         <v>110</v>
@@ -15845,7 +15843,7 @@
         <v>111</v>
       </c>
       <c r="U7" s="19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V7" s="19">
         <v>111</v>
@@ -15886,7 +15884,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I8" s="19">
         <v>107</v>
@@ -15916,7 +15914,7 @@
         <v>108</v>
       </c>
       <c r="U8" s="19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V8" s="19">
         <v>113</v>
@@ -15957,7 +15955,7 @@
         <v>6</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I9" s="19">
         <v>107</v>
@@ -15987,7 +15985,7 @@
         <v>110</v>
       </c>
       <c r="U9" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V9" s="19">
         <v>105</v>
@@ -16028,7 +16026,7 @@
         <v>6</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I10" s="19">
         <v>100</v>
@@ -16058,7 +16056,7 @@
         <v>109</v>
       </c>
       <c r="U10" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V10" s="19">
         <v>101</v>
@@ -16099,7 +16097,7 @@
         <v>7</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I11" s="19">
         <v>108</v>
@@ -16129,7 +16127,7 @@
         <v>105</v>
       </c>
       <c r="U11" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V11" s="19">
         <v>106</v>
@@ -16414,28 +16412,28 @@
       </c>
       <c r="F37" s="20"/>
       <c r="H37" s="19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N37" s="19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q37" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="T37" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="W37" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z37" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC37" s="19" t="s">
         <v>18</v>
-      </c>
-      <c r="T37" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="W37" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z37" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC37" s="19" t="s">
-        <v>17</v>
       </c>
       <c r="AF37" s="19" t="s">
         <v>274</v>
@@ -16443,64 +16441,64 @@
     </row>
     <row r="38" spans="5:33">
       <c r="E38" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F38" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H38" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="I38" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K38" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K38" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="L38" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N38" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="N38" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="O38" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q38" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="Q38" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="R38" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="T38" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="T38" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="U38" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="W38" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="W38" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="X38" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z38" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="Z38" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="AA38" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC38" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AC38" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="AD38" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF38" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AF38" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="AG38" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="5:33">
@@ -17834,7 +17832,7 @@
     </row>
     <row r="63" spans="1:33">
       <c r="A63" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B63" s="19" t="s">
         <v>119</v>
@@ -19599,35 +19597,35 @@
       </c>
       <c r="AK222" s="20"/>
       <c r="AM222" s="20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN222" s="20"/>
       <c r="AP222" s="20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ222" s="20"/>
       <c r="AS222" s="20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT222" s="20"/>
       <c r="AV222" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW222" s="20"/>
       <c r="AY222" s="20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ222" s="20"/>
       <c r="BB222" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC222" s="20"/>
       <c r="BE222" s="20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BF222" s="20"/>
       <c r="BH222" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BI222" s="20"/>
       <c r="BK222" s="20" t="s">
@@ -19637,64 +19635,64 @@
     </row>
     <row r="223" spans="36:64">
       <c r="AJ223" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK223" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM223" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AM223" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="AN223" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP223" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AP223" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="AQ223" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS223" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AS223" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="AT223" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV223" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AV223" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="AW223" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY223" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AY223" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="AZ223" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="BB223" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="BB223" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="BC223" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE223" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="BE223" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="BF223" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="BH223" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="BH223" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="BI223" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="BK223" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="BK223" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="BL223" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="224" spans="36:64">
@@ -22282,28 +22280,28 @@
       </c>
       <c r="BP407" s="20"/>
       <c r="BR407" s="19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BU407" s="19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BX407" s="19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CA407" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="CD407" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="CG407" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="CJ407" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="CM407" s="19" t="s">
         <v>18</v>
-      </c>
-      <c r="CD407" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="CG407" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="CJ407" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="CM407" s="19" t="s">
-        <v>17</v>
       </c>
       <c r="CP407" s="19" t="s">
         <v>274</v>
@@ -22311,64 +22309,64 @@
     </row>
     <row r="408" spans="67:95">
       <c r="BO408" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BP408" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="BR408" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="BR408" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="BS408" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="BU408" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="BU408" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="BV408" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="BX408" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="BX408" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="BY408" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="CA408" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="CA408" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="CB408" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="CD408" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="CD408" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="CE408" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="CG408" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="CG408" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="CH408" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="CJ408" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="CJ408" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="CK408" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="CM408" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="CM408" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="CN408" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="CP408" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="CP408" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="CQ408" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="409" spans="67:95">
@@ -24956,35 +24954,35 @@
       </c>
       <c r="CU592" s="20"/>
       <c r="CW592" s="20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CX592" s="20"/>
       <c r="CZ592" s="20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="DA592" s="20"/>
       <c r="DC592" s="20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="DD592" s="20"/>
       <c r="DF592" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="DG592" s="20"/>
       <c r="DI592" s="20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="DJ592" s="20"/>
       <c r="DL592" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="DM592" s="20"/>
       <c r="DO592" s="20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="DP592" s="20"/>
       <c r="DR592" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="DS592" s="20"/>
       <c r="DU592" s="20" t="s">
@@ -24994,64 +24992,64 @@
     </row>
     <row r="593" spans="98:126">
       <c r="CT593" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CU593" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="CW593" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="CW593" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="CX593" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="CZ593" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="CZ593" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="DA593" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC593" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="DC593" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="DD593" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="DF593" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="DF593" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="DG593" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="DI593" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="DI593" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="DJ593" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="DL593" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="DL593" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="DM593" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="DO593" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="DO593" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="DP593" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="DR593" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="DR593" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="DS593" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="DU593" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="DU593" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="DV593" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="594" spans="98:126">
@@ -27639,35 +27637,35 @@
       </c>
       <c r="DZ777" s="20"/>
       <c r="EB777" s="20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="EC777" s="20"/>
       <c r="EE777" s="20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="EF777" s="20"/>
       <c r="EH777" s="20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="EI777" s="20"/>
       <c r="EK777" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="EL777" s="20"/>
       <c r="EN777" s="20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="EO777" s="20"/>
       <c r="EQ777" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="ER777" s="20"/>
       <c r="ET777" s="20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="EU777" s="20"/>
       <c r="EW777" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="EX777" s="20"/>
       <c r="EZ777" s="20" t="s">
@@ -27678,64 +27676,64 @@
     </row>
     <row r="778" spans="129:157">
       <c r="DY778" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="DZ778" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="EB778" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="EB778" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="EC778" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="EE778" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="EE778" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="EF778" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="EH778" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="EH778" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="EI778" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="EK778" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="EK778" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="EL778" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="EN778" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="EN778" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="EO778" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="EQ778" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="EQ778" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="ER778" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="ET778" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="ET778" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="EU778" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="EW778" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="EW778" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="EX778" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="EZ778" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="EZ778" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="FA778" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="779" spans="129:157">
@@ -30323,35 +30321,35 @@
       </c>
       <c r="FE962" s="20"/>
       <c r="FG962" s="20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="FH962" s="20"/>
       <c r="FJ962" s="20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="FK962" s="20"/>
       <c r="FM962" s="20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="FN962" s="20"/>
       <c r="FP962" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="FQ962" s="20"/>
       <c r="FS962" s="20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="FT962" s="20"/>
       <c r="FV962" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="FW962" s="20"/>
       <c r="FY962" s="20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="FZ962" s="20"/>
       <c r="GB962" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="GC962" s="20"/>
       <c r="GE962" s="20" t="s">
@@ -30361,64 +30359,64 @@
     </row>
     <row r="963" spans="160:188">
       <c r="FD963" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="FE963" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="FG963" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="FG963" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="FH963" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="FJ963" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="FJ963" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="FK963" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="FM963" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="FM963" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="FN963" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="FP963" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="FP963" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="FQ963" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="FS963" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="FS963" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="FT963" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="FV963" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="FV963" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="FW963" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="FY963" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="FY963" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="FZ963" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="GB963" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="GB963" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="GC963" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="GE963" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="GE963" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="GF963" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="964" spans="160:188">
@@ -33006,35 +33004,35 @@
       </c>
       <c r="GJ1147" s="20"/>
       <c r="GL1147" s="20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="GM1147" s="20"/>
       <c r="GO1147" s="20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="GP1147" s="20"/>
       <c r="GR1147" s="20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="GS1147" s="20"/>
       <c r="GU1147" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="GV1147" s="20"/>
       <c r="GX1147" s="20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="GY1147" s="20"/>
       <c r="HA1147" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="HB1147" s="20"/>
       <c r="HD1147" s="20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="HE1147" s="20"/>
       <c r="HG1147" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="HH1147" s="20"/>
       <c r="HJ1147" s="20" t="s">
@@ -33044,64 +33042,64 @@
     </row>
     <row r="1148" spans="191:219">
       <c r="GI1148" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="GJ1148" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="GL1148" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="GL1148" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="GM1148" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="GO1148" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="GO1148" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="GP1148" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="GR1148" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="GR1148" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="GS1148" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="GU1148" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="GU1148" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="GV1148" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="GX1148" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="GX1148" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="GY1148" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="HA1148" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="HA1148" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="HB1148" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="HD1148" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="HD1148" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="HE1148" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="HG1148" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="HG1148" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="HH1148" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="HJ1148" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="HJ1148" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="HK1148" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1149" spans="191:219">
@@ -35689,35 +35687,35 @@
       </c>
       <c r="HO1332" s="20"/>
       <c r="HQ1332" s="20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="HR1332" s="20"/>
       <c r="HT1332" s="20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="HU1332" s="20"/>
       <c r="HW1332" s="20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="HX1332" s="20"/>
       <c r="HZ1332" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="IA1332" s="20"/>
       <c r="IC1332" s="20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="ID1332" s="20"/>
       <c r="IF1332" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="IG1332" s="20"/>
       <c r="II1332" s="20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="IJ1332" s="20"/>
       <c r="IL1332" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="IM1332" s="20"/>
       <c r="IO1332" s="20" t="s">
@@ -35727,64 +35725,64 @@
     </row>
     <row r="1333" spans="222:250">
       <c r="HN1333" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="HO1333" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="HQ1333" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="HQ1333" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="HR1333" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="HT1333" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="HT1333" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="HU1333" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="HW1333" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="HW1333" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="HX1333" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="HZ1333" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="HZ1333" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="IA1333" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="IC1333" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="IC1333" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="ID1333" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="IF1333" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="IF1333" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="IG1333" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="II1333" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="II1333" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="IJ1333" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="IL1333" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="IL1333" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="IM1333" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="IO1333" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="IO1333" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="IP1333" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1334" spans="222:250">
@@ -38460,35 +38458,35 @@
       </c>
       <c r="C5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L5" s="4"/>
       <c r="N5" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O5" s="4"/>
       <c r="Q5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R5" s="4"/>
       <c r="T5" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U5" s="4"/>
       <c r="W5" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="X5" s="4"/>
       <c r="Z5" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA5" s="4"/>
       <c r="AC5" s="4" t="s">
@@ -38498,68 +38496,68 @@
     </row>
     <row r="6" spans="2:30">
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="F6" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="T6" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="U6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="W6" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="X6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Z6" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="AA6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AC6" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="AD6" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:30">
@@ -39863,35 +39861,35 @@
       </c>
       <c r="C32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F32" s="4"/>
       <c r="H32" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I32" s="4"/>
       <c r="K32" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L32" s="4"/>
       <c r="N32" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O32" s="4"/>
       <c r="Q32" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R32" s="4"/>
       <c r="T32" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U32" s="4"/>
       <c r="W32" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="X32" s="4"/>
       <c r="Z32" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA32" s="4"/>
       <c r="AC32" s="4" t="s">
@@ -39901,68 +39899,68 @@
     </row>
     <row r="33" spans="2:30">
       <c r="B33" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="F33" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T33" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="T33" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="U33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W33" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="W33" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="X33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z33" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Z33" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="AA33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC33" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AC33" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="AD33" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="2:30">
@@ -41266,35 +41264,35 @@
       </c>
       <c r="C59" s="4"/>
       <c r="E59" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F59" s="4"/>
       <c r="H59" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I59" s="4"/>
       <c r="K59" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L59" s="4"/>
       <c r="N59" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O59" s="4"/>
       <c r="Q59" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R59" s="4"/>
       <c r="T59" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U59" s="4"/>
       <c r="W59" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="X59" s="4"/>
       <c r="Z59" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA59" s="4"/>
       <c r="AC59" s="4" t="s">
@@ -41304,68 +41302,68 @@
     </row>
     <row r="60" spans="2:30">
       <c r="B60" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C60" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E60" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="F60" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O60" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R60" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T60" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="T60" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="U60" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W60" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="W60" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="X60" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z60" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Z60" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="AA60" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC60" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AC60" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="AD60" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="2:30">
@@ -42669,35 +42667,35 @@
       </c>
       <c r="C86" s="4"/>
       <c r="E86" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F86" s="4"/>
       <c r="H86" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I86" s="4"/>
       <c r="K86" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L86" s="4"/>
       <c r="N86" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O86" s="4"/>
       <c r="Q86" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R86" s="4"/>
       <c r="T86" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U86" s="4"/>
       <c r="W86" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="X86" s="4"/>
       <c r="Z86" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA86" s="4"/>
       <c r="AC86" s="4" t="s">
@@ -42707,68 +42705,68 @@
     </row>
     <row r="87" spans="2:30">
       <c r="B87" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C87" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E87" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="F87" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J87" s="2"/>
       <c r="K87" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O87" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R87" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T87" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="T87" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="U87" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W87" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="W87" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="X87" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z87" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Z87" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="AA87" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC87" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AC87" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="AD87" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="2:30">
@@ -44072,35 +44070,35 @@
       </c>
       <c r="C113" s="4"/>
       <c r="E113" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F113" s="4"/>
       <c r="H113" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I113" s="4"/>
       <c r="K113" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L113" s="4"/>
       <c r="N113" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O113" s="4"/>
       <c r="Q113" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R113" s="4"/>
       <c r="T113" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U113" s="4"/>
       <c r="W113" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="X113" s="4"/>
       <c r="Z113" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA113" s="4"/>
       <c r="AC113" s="4" t="s">
@@ -44110,68 +44108,68 @@
     </row>
     <row r="114" spans="2:30">
       <c r="B114" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C114" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E114" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E114" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="F114" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G114" s="2"/>
       <c r="H114" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J114" s="2"/>
       <c r="K114" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L114" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O114" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P114" s="2"/>
       <c r="Q114" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R114" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T114" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="T114" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="U114" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W114" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="W114" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="X114" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z114" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Z114" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="AA114" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC114" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AC114" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="AD114" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115" spans="2:30">
@@ -45475,35 +45473,35 @@
       </c>
       <c r="C140" s="4"/>
       <c r="E140" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F140" s="4"/>
       <c r="H140" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I140" s="4"/>
       <c r="K140" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L140" s="4"/>
       <c r="N140" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O140" s="4"/>
       <c r="Q140" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R140" s="4"/>
       <c r="T140" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U140" s="4"/>
       <c r="W140" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="X140" s="4"/>
       <c r="Z140" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA140" s="4"/>
       <c r="AC140" s="4" t="s">
@@ -45513,68 +45511,68 @@
     </row>
     <row r="141" spans="2:30">
       <c r="B141" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C141" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E141" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E141" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="F141" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G141" s="2"/>
       <c r="H141" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I141" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J141" s="2"/>
       <c r="K141" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L141" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O141" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P141" s="2"/>
       <c r="Q141" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R141" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T141" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="T141" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="U141" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W141" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="W141" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="X141" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z141" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Z141" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="AA141" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC141" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AC141" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="AD141" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="142" spans="2:30">
@@ -46878,35 +46876,35 @@
       </c>
       <c r="C167" s="4"/>
       <c r="E167" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F167" s="4"/>
       <c r="H167" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I167" s="4"/>
       <c r="K167" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L167" s="4"/>
       <c r="N167" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O167" s="4"/>
       <c r="Q167" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R167" s="4"/>
       <c r="T167" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U167" s="4"/>
       <c r="W167" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="X167" s="4"/>
       <c r="Z167" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA167" s="4"/>
       <c r="AC167" s="4" t="s">
@@ -46916,68 +46914,68 @@
     </row>
     <row r="168" spans="2:30">
       <c r="B168" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C168" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E168" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E168" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="F168" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G168" s="2"/>
       <c r="H168" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I168" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J168" s="2"/>
       <c r="K168" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L168" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M168" s="2"/>
       <c r="N168" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O168" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P168" s="2"/>
       <c r="Q168" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R168" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T168" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="T168" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="U168" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W168" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="W168" s="17" t="s">
-        <v>21</v>
-      </c>
       <c r="X168" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z168" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Z168" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="AA168" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC168" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AC168" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="AD168" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="169" spans="2:30">
@@ -48304,107 +48302,107 @@
       <c r="C194" s="20"/>
       <c r="D194" s="19"/>
       <c r="E194" s="19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F194" s="19"/>
       <c r="G194" s="19"/>
       <c r="H194" s="19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I194" s="19"/>
       <c r="J194" s="19"/>
       <c r="K194" s="19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L194" s="19"/>
       <c r="M194" s="19"/>
       <c r="N194" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O194" s="19"/>
       <c r="P194" s="19"/>
       <c r="Q194" s="19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R194" s="19"/>
       <c r="S194" s="19"/>
       <c r="T194" s="19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U194" s="19"/>
       <c r="V194" s="19"/>
       <c r="W194" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="X194" s="19"/>
       <c r="Y194" s="19"/>
       <c r="Z194" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA194" s="19"/>
     </row>
     <row r="195" spans="2:30">
       <c r="B195" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C195" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D195" s="19"/>
       <c r="E195" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F195" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G195" s="19"/>
       <c r="H195" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I195" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J195" s="19"/>
       <c r="K195" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L195" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M195" s="19"/>
       <c r="N195" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O195" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P195" s="19"/>
       <c r="Q195" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R195" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S195" s="19"/>
       <c r="T195" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U195" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V195" s="19"/>
       <c r="W195" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X195" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y195" s="19"/>
       <c r="Z195" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA195" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC195" s="4" t="s">
         <v>284</v>
@@ -48475,10 +48473,10 @@
         <v>72</v>
       </c>
       <c r="AC196" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AD196" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="197" spans="2:30">
